--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
@@ -17,216 +17,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Name - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Vendor Address - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Billing Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Billing Name - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Billing Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Billing Address - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Billing VAT Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Billing VAT Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Shipping Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Shipping Address - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Payment Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Payment Address - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Vendor VAT Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Vendor VAT Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Date - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>DueDate</x:t>
   </x:si>
   <x:si>
-    <x:t>DueDate - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Invoice Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Invoice Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>PO Number</x:t>
   </x:si>
   <x:si>
-    <x:t>PO Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Payment Terms</x:t>
   </x:si>
   <x:si>
-    <x:t>Payment Terms - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Shipping Charges</x:t>
   </x:si>
   <x:si>
-    <x:t>Shipping Charges - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tax Amount</x:t>
   </x:si>
   <x:si>
-    <x:t>Tax Amount - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Net Amount</x:t>
   </x:si>
   <x:si>
-    <x:t>Net Amount - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Total - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Discount</x:t>
   </x:si>
   <x:si>
-    <x:t>Discount - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>Currency - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>Items - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sirius Cybernetics Corp.</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9337104</x:t>
-  </x:si>
-  <x:si>
     <x:t>4592 Bell Street New York, NY 10018</x:t>
   </x:si>
   <x:si>
-    <x:t>0.94871616</x:t>
-  </x:si>
-  <x:si>
     <x:t>CHOAM</x:t>
   </x:si>
   <x:si>
-    <x:t>0.7224594</x:t>
-  </x:si>
-  <x:si>
     <x:t>27 Shield Wall Ave, Carthag, CH 1965</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8291052</x:t>
-  </x:si>
-  <x:si>
     <x:t>CHOAM 27 Shield Wall Ave, Carthag, CH 1965 Arrakis</x:t>
   </x:si>
   <x:si>
-    <x:t>0.5744271</x:t>
-  </x:si>
-  <x:si>
     <x:t>2016-01-27</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9635495</x:t>
-  </x:si>
-  <x:si>
     <x:t>2016-02-26</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9611754</x:t>
-  </x:si>
-  <x:si>
     <x:t>890127</x:t>
   </x:si>
   <x:si>
-    <x:t>0.96955127</x:t>
-  </x:si>
-  <x:si>
     <x:t>16012633</x:t>
   </x:si>
   <x:si>
-    <x:t>0.95598537</x:t>
-  </x:si>
-  <x:si>
     <x:t>30 days</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8169003</x:t>
-  </x:si>
-  <x:si>
     <x:t>47088.46</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9690683</x:t>
-  </x:si>
-  <x:si>
     <x:t>247834.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9873804</x:t>
-  </x:si>
-  <x:si>
     <x:t>294922.46</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9909512</x:t>
-  </x:si>
-  <x:si>
     <x:t>USD</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9311878</x:t>
-  </x:si>
-  <x:si>
     <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.50218105</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -252,112 +147,58 @@
     <x:t>Line Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Line Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>Description - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Item PO Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Item PO Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Quantity</x:t>
   </x:si>
   <x:si>
-    <x:t>Quantity - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Unit Price</x:t>
   </x:si>
   <x:si>
-    <x:t>Unit Price - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Line Amount</x:t>
   </x:si>
   <x:si>
-    <x:t>Line Amount - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Part Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Part Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nutrimatic Drinks Dispenser</x:t>
   </x:si>
   <x:si>
-    <x:t>0.94312984</x:t>
-  </x:si>
-  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>0.6540515</x:t>
-  </x:si>
-  <x:si>
     <x:t>4200.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.97244656</x:t>
-  </x:si>
-  <x:si>
     <x:t>42000.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.98803127</x:t>
-  </x:si>
-  <x:si>
     <x:t>Shipboard Computer "Eddie"</x:t>
   </x:si>
   <x:si>
-    <x:t>0.90975606</x:t>
-  </x:si>
-  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
     <x:t>8402.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.98605657</x:t>
-  </x:si>
-  <x:si>
     <x:t>142834.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9879618</x:t>
-  </x:si>
-  <x:si>
     <x:t>Happy Vertical People Transporters</x:t>
   </x:si>
   <x:si>
-    <x:t>0.95880336</x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>0.594457</x:t>
-  </x:si>
-  <x:si>
     <x:t>21000.00</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9846526</x:t>
-  </x:si>
-  <x:si>
     <x:t>63000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9906792</x:t>
   </x:si>
   <x:si>
     <x:t>10.00</x:t>
@@ -721,13 +562,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AN2"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:40">
+    <x:row r="1" spans="1:20">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -788,157 +629,52 @@
       <x:c r="T1" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:20">
+      <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="AB1" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="AC1" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AD1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AE1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AF1" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="AG1" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="AH1" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="AI1" s="0" t="s">
+      <x:c r="T2" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="AJ1" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="AK1" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AL1" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM1" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AN1" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:40">
-      <x:c r="A2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="U2" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="V2" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W2" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="X2" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Y2" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="Z2" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="AE2" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="AF2" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="AG2" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH2" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="AK2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AL2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AM2" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AN2" s="0" t="s">
-        <x:v>69</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -955,13 +691,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AN2"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:40">
+    <x:row r="1" spans="1:20">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1022,157 +758,52 @@
       <x:c r="T1" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:20">
+      <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Y1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="Z1" s="0" t="s">
+      <x:c r="D2" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="AB1" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="AC1" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AD1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AE1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AF1" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="AG1" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="AH1" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="AI1" s="0" t="s">
+      <x:c r="T2" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="AJ1" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="AK1" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AL1" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AM1" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AN1" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:40">
-      <x:c r="A2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="U2" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="V2" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="W2" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="X2" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Y2" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="Z2" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="AE2" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="AF2" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="AG2" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH2" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="AK2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AL2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AM2" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AN2" s="0" t="s">
-        <x:v>69</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1189,132 +820,75 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N4"/>
+  <x:dimension ref="A1:G4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:14">
-      <x:c r="C2" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="B2" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="C3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="B3" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="C4" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="B4" s="0" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1331,132 +905,75 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N4"/>
+  <x:dimension ref="A1:G4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:14">
-      <x:c r="C2" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="B2" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="C3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="B3" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="C4" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="B4" s="0" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
@@ -88,7 +88,7 @@
     <x:t>CHOAM</x:t>
   </x:si>
   <x:si>
-    <x:t>27 Shield Wall Ave, Carthag, CH 1965</x:t>
+    <x:t>27 Shield Wall Ave, Carthag, CH 1965 Arrakis</x:t>
   </x:si>
   <x:si>
     <x:t>CHOAM 27 Shield Wall Ave, Carthag, CH 1965 Arrakis</x:t>
@@ -133,7 +133,7 @@
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Address Line 1","27 Shield Ave Carthag CH"
+"Address Line 1","27 Shield Ave Carthag CH Arrakis"
 "City","Wall"
 "Zip Postal Code","1965"</x:t>
   </x:si>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
@@ -106,7 +106,7 @@
     <x:t>16012633</x:t>
   </x:si>
   <x:si>
-    <x:t>30 days</x:t>
+    <x:t>due 30 days</x:t>
   </x:si>
   <x:si>
     <x:t>47088.46</x:t>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -73,9 +73,6 @@
     <x:t>Discount</x:t>
   </x:si>
   <x:si>
-    <x:t>Currency</x:t>
-  </x:si>
-  <x:si>
     <x:t>Items</x:t>
   </x:si>
   <x:si>
@@ -106,7 +103,7 @@
     <x:t>16012633</x:t>
   </x:si>
   <x:si>
-    <x:t>due 30 days</x:t>
+    <x:t>30 days</x:t>
   </x:si>
   <x:si>
     <x:t>47088.46</x:t>
@@ -116,9 +113,6 @@
   </x:si>
   <x:si>
     <x:t>294922.46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
@@ -562,13 +556,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:S2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:20">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -626,55 +620,49 @@
       <x:c r="S1" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:19">
+      <x:c r="A2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -691,13 +679,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:S2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:20">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -755,55 +743,49 @@
       <x:c r="S1" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:19">
+      <x:c r="A2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="I2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -828,67 +810,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="B2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="B4" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -913,67 +895,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="B2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="B4" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_2-2.xlsx
@@ -106,7 +106,7 @@
     <x:t>16012633</x:t>
   </x:si>
   <x:si>
-    <x:t>due 30 days</x:t>
+    <x:t>30 days</x:t>
   </x:si>
   <x:si>
     <x:t>47088.46</x:t>
